--- a/medicine/Enfance/Un_garçon_comme_vous_et_moi/Un_garçon_comme_vous_et_moi.xlsx
+++ b/medicine/Enfance/Un_garçon_comme_vous_et_moi/Un_garçon_comme_vous_et_moi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un_gar%C3%A7on_comme_vous_et_moi</t>
+          <t>Un_garçon_comme_vous_et_moi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un garçon comme vous et moi est un essai publié par Ivan Jablonka aux Éditions du Seuil en 2021.
-Il se présente comme une « autobiographie de genre »[1], l’auteur analysant l’éducation qu’il a reçue en tant que garçon dans les années 1980 et 1990[2].
+Il se présente comme une « autobiographie de genre », l’auteur analysant l’éducation qu’il a reçue en tant que garçon dans les années 1980 et 1990.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Un_gar%C3%A7on_comme_vous_et_moi</t>
+          <t>Un_garçon_comme_vous_et_moi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Thématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre étudie les « moments forts de la jeunesse de l'auteur, depuis sa naissance [en 1973] jusqu'à ses vingt ans environ »[3]. Avec les outils de la socio-histoire, il étudie les différents groupes (famille, école, lycée, club de football) qui ont produit sa « garçonnité »[4]. Comme sa socialisation ressemble à celle des autres garçons de sa génération, il n’est pas très différent d’eux[5], d’où le titre du livre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre étudie les « moments forts de la jeunesse de l'auteur, depuis sa naissance [en 1973] jusqu'à ses vingt ans environ ». Avec les outils de la socio-histoire, il étudie les différents groupes (famille, école, lycée, club de football) qui ont produit sa « garçonnité ». Comme sa socialisation ressemble à celle des autres garçons de sa génération, il n’est pas très différent d’eux, d’où le titre du livre.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Un_gar%C3%A7on_comme_vous_et_moi</t>
+          <t>Un_garçon_comme_vous_et_moi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,16 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les rites de passage et les produits culturels qui ont construit la masculinité de l’auteur : 
-les figurines Playmobil et les premiers jeux vidéo[6], auquel l’enfant jouait assidûment.
-le dessin animé Goldorak diffusé dans l’émission Récré A2[7].
-la sélection scolaire, puisque sa sixième a donné plus tard « trois normaliens, deux polytechniciens, deux agrégés de lettres et un diplômé des Mines de Paris »[3].
-son service militaire effectué au 45° RT de Montélimar, au moment où le service national est suspendu par la loi du 28 octobre 1997[8] et juste avant la dissolution dudit régiment en 2000.
-Le livre aborde également la question du suicide à travers celui d’amis de Jablonka, notamment le journaliste Yann Fronty décédé en 2012[9].
+les figurines Playmobil et les premiers jeux vidéo, auquel l’enfant jouait assidûment.
+le dessin animé Goldorak diffusé dans l’émission Récré A2.
+la sélection scolaire, puisque sa sixième a donné plus tard « trois normaliens, deux polytechniciens, deux agrégés de lettres et un diplômé des Mines de Paris ».
+son service militaire effectué au 45° RT de Montélimar, au moment où le service national est suspendu par la loi du 28 octobre 1997 et juste avant la dissolution dudit régiment en 2000.
+Le livre aborde également la question du suicide à travers celui d’amis de Jablonka, notamment le journaliste Yann Fronty décédé en 2012.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Un_gar%C3%A7on_comme_vous_et_moi</t>
+          <t>Un_garçon_comme_vous_et_moi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,12 +596,14 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dans Le Figaro, Anthony Palou écrit : « On s’y retrouve. Il est dans le temps, il est dans l’espace. Et c’est sacrément bien. »[10].
-Dans Le Monde des livres, Camille Laurens écrit que Jablonka pose les « bases critiques de son enquête » et a « conscience de ses privilèges », mais elle regrette qu'il garde trop ses distances vis-à-vis de sa sexualité[11].
-Dans Le Masque et la Plume, Patricia Martin déclare que, « en tant que nana, je dirais que je l'ai lu avec énormément de plaisir et que c'est un livre qui fait du bien. »[12].
-Arnaud Viviant a critiqué l’absence de la dimension littéraire, même s'« il y a quelque chose d'intéressant, à savoir que "on ne naît pas homme, on le devient" (pour retourner la célèbre formule)[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans Le Figaro, Anthony Palou écrit : « On s’y retrouve. Il est dans le temps, il est dans l’espace. Et c’est sacrément bien. ».
+Dans Le Monde des livres, Camille Laurens écrit que Jablonka pose les « bases critiques de son enquête » et a « conscience de ses privilèges », mais elle regrette qu'il garde trop ses distances vis-à-vis de sa sexualité.
+Dans Le Masque et la Plume, Patricia Martin déclare que, « en tant que nana, je dirais que je l'ai lu avec énormément de plaisir et que c'est un livre qui fait du bien. ».
+Arnaud Viviant a critiqué l’absence de la dimension littéraire, même s'« il y a quelque chose d'intéressant, à savoir que "on ne naît pas homme, on le devient" (pour retourner la célèbre formule).</t>
         </is>
       </c>
     </row>
